--- a/data/trans_orig/Q15_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01646398555384928</v>
+        <v>0.01744204650890687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01394407203837814</v>
+        <v>0.0139512431302355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01970053604586044</v>
+        <v>0.01944921284304934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01418254891882063</v>
+        <v>0.01428505947022822</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01664551399192308</v>
+        <v>0.01614186081403729</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01810685730917975</v>
+        <v>0.01792675254618666</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01931169570107153</v>
+        <v>0.01940907023209358</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03096596507623795</v>
+        <v>0.02991357661151658</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01959921334395696</v>
+        <v>0.01982704361701115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01786107216025921</v>
+        <v>0.01761358234324291</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02129343569124098</v>
+        <v>0.02276046522158414</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02601338069473105</v>
+        <v>0.02497352675986911</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04728244624629927</v>
+        <v>0.04588420217086444</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03475597115281578</v>
+        <v>0.03461356316783686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04271496857569143</v>
+        <v>0.0429716887390113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04415119781619103</v>
+        <v>0.04294643576190984</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03788922041650409</v>
+        <v>0.0384417961191181</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04029475897026974</v>
+        <v>0.03950177045224026</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04100223823960914</v>
+        <v>0.04114359509524053</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0737834422604409</v>
+        <v>0.07150766918448934</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03679924078376413</v>
+        <v>0.03638494905898237</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03199573638492214</v>
+        <v>0.0324494824339566</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03713234024503312</v>
+        <v>0.03712393317588097</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05195154254156505</v>
+        <v>0.05169375599171448</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.02566188331311239</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03087745460928349</v>
+        <v>0.03087745460928348</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0219941460698668</v>
+        <v>0.02088422633785657</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02260830933279446</v>
+        <v>0.02305275507095844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01834437722843539</v>
+        <v>0.01793891498066432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01609841430785868</v>
+        <v>0.01666021803468758</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01928884691114635</v>
+        <v>0.01932707504994288</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01794826587657924</v>
+        <v>0.01829754188238407</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01401207423658509</v>
+        <v>0.01370374693796164</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02495750055230728</v>
+        <v>0.02509045845822462</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02282881807622041</v>
+        <v>0.02239334207381299</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02325737654670427</v>
+        <v>0.02256175475480557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01883845750472976</v>
+        <v>0.01865272099668241</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02360503876376878</v>
+        <v>0.0239487827685236</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04247871176641719</v>
+        <v>0.04157472230458738</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04527805084743432</v>
+        <v>0.04459575403691682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04258219466544658</v>
+        <v>0.04159745188018036</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04726093004613542</v>
+        <v>0.04939346302548608</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04154170938987407</v>
+        <v>0.0419239667488025</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04069292410256543</v>
+        <v>0.04061466378208701</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0360740346998851</v>
+        <v>0.03623282617161964</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04588691841949697</v>
+        <v>0.04543211816218679</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03828404600827513</v>
+        <v>0.03749463849117634</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03831913497079071</v>
+        <v>0.03816331420911831</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03496817111340272</v>
+        <v>0.03427268803279576</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04067012286048929</v>
+        <v>0.04245878916384346</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02599549974364442</v>
+        <v>0.02673026204598128</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01804839506253914</v>
+        <v>0.01910937704149009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01825233613869927</v>
+        <v>0.01834381461167451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01583817040187684</v>
+        <v>0.01693215501809175</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01507850924789152</v>
+        <v>0.01530345619781175</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02097171071531772</v>
+        <v>0.02054182068923324</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01843432927769572</v>
+        <v>0.01875215741102793</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02125096393891716</v>
+        <v>0.02069330893671972</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02444541885926989</v>
+        <v>0.02410371796578668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02291928523864193</v>
+        <v>0.02221146739549633</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02059339773940807</v>
+        <v>0.0208111453180691</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02068541097082984</v>
+        <v>0.0207378407827576</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0518528392461216</v>
+        <v>0.05147166695813389</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04055097764053352</v>
+        <v>0.04258231105861034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04249138142187878</v>
+        <v>0.0427906611210874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03869849322460978</v>
+        <v>0.04007307911460207</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03537423088429059</v>
+        <v>0.03503537532160231</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04724674859782569</v>
+        <v>0.04711381883506979</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04488008573879068</v>
+        <v>0.04292007280246261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04245561806710362</v>
+        <v>0.04072727493764011</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0397296396063547</v>
+        <v>0.03953092604557918</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03950378263726785</v>
+        <v>0.03912118964291855</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03894805038894306</v>
+        <v>0.03933737320435535</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0359417518522531</v>
+        <v>0.03491134584800783</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.02099497290205218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03642097921396882</v>
+        <v>0.03642097921396883</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02903759547843545</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03073726870776184</v>
+        <v>0.03186308593078002</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0254114787237835</v>
+        <v>0.02529593259615314</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01064379711529223</v>
+        <v>0.01071084654811208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01589868442151082</v>
+        <v>0.01569623616693385</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01460688582671889</v>
+        <v>0.013243338723603</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01491358439195564</v>
+        <v>0.01500747741438633</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008250440309341916</v>
+        <v>0.007285171622108112</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01299887599191421</v>
+        <v>0.01328620947588165</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02842155060786527</v>
+        <v>0.02694308830090289</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0232140443929439</v>
+        <v>0.0253585754619724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01119389671246719</v>
+        <v>0.01209677568137911</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01836532238221059</v>
+        <v>0.01816401459542248</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07606226720736634</v>
+        <v>0.07777207590203142</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07382203823384442</v>
+        <v>0.07576633410374903</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03802433381332583</v>
+        <v>0.03812203014568743</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08414765684352653</v>
+        <v>0.08441880778685687</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.050959179222522</v>
+        <v>0.05230599458868716</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05863196762841569</v>
+        <v>0.05452418958073881</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03419605845873387</v>
+        <v>0.03201931494453974</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03019289796115152</v>
+        <v>0.03067520896287844</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05909334601108238</v>
+        <v>0.0566125003978847</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05428139072456639</v>
+        <v>0.05813056446218543</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03018602568768527</v>
+        <v>0.03049201556712063</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05179628119758614</v>
+        <v>0.05228806077777047</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.02750267327649408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02899378255776226</v>
+        <v>0.02899378255776227</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0264069250871189</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02933109815283315</v>
+        <v>0.0284968883830545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02342270364992075</v>
+        <v>0.02370898953817083</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02251909611313663</v>
+        <v>0.02137103803505393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02156798057231655</v>
+        <v>0.0212422380908311</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02118275191824829</v>
+        <v>0.02064499819334952</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02284338103310281</v>
+        <v>0.02335137465926787</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02036953825140405</v>
+        <v>0.02041901301110306</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0260485976861853</v>
+        <v>0.02559623253468546</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02685620095494946</v>
+        <v>0.02681297848028802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02521031971623592</v>
+        <v>0.02496842095521055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02269437217740463</v>
+        <v>0.02281351269610589</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02533304397340942</v>
+        <v>0.02577537530938102</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04274222661017515</v>
+        <v>0.04225331758662965</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03644022625627146</v>
+        <v>0.03697501931984875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0347673986931453</v>
+        <v>0.03351217115372498</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04221575550116736</v>
+        <v>0.04184841530782695</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03304189939483614</v>
+        <v>0.03199461790038782</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03533226578157943</v>
+        <v>0.03592923986643076</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03122802187783675</v>
+        <v>0.03255853499785254</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03791157497392425</v>
+        <v>0.03736527958446419</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03580570084547458</v>
+        <v>0.0353779214207523</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03435841888727689</v>
+        <v>0.03348804522708583</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03074347074527308</v>
+        <v>0.03093473402948004</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03705755229184347</v>
+        <v>0.03745473332930863</v>
       </c>
     </row>
     <row r="19">
